--- a/Business rules.xlsx
+++ b/Business rules.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>#TestID</t>
   </si>
@@ -101,15 +101,9 @@
     <t>xml loaded</t>
   </si>
   <si>
-    <t>xml laoded</t>
-  </si>
-  <si>
     <t>xml</t>
   </si>
   <si>
-    <t>xml parsed in tab</t>
-  </si>
-  <si>
     <t>Geolocate me</t>
   </si>
   <si>
@@ -126,6 +120,27 @@
   </si>
   <si>
     <t>Load weather from  API</t>
+  </si>
+  <si>
+    <t>update DOM objects with content</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>Layout rendered</t>
+  </si>
+  <si>
+    <t>update DOM objects with icon URL</t>
+  </si>
+  <si>
+    <t>Display empty card</t>
+  </si>
+  <si>
+    <t>Show link to source</t>
+  </si>
+  <si>
+    <t>Link and Text to source code</t>
   </si>
 </sst>
 </file>
@@ -457,14 +472,15 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.86328125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="86.73046875" bestFit="1" customWidth="1"/>
   </cols>
@@ -492,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -504,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -515,11 +531,14 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -528,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -539,16 +558,10 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -558,22 +571,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -582,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -593,8 +612,17 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -603,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -612,16 +640,19 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -639,13 +670,16 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -656,20 +690,53 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -725,15 +792,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>Feature</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1 xml:space="preserve"> Browser</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Update lists !" sqref="D2:D1048576">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Update lists !" sqref="D3:D1048576">
       <formula1 xml:space="preserve"> As_a</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -765,7 +832,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -776,7 +843,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -784,17 +851,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
